--- a/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
+++ b/5. Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 11_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A87D18-7A5C-40BB-ACA6-CABD22554FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99035B04-CF7D-43D8-96CD-66BBFC0D9CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>Stt</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Bình thường</t>
+  </si>
+  <si>
+    <t>Lỗi đã trả kho</t>
   </si>
 </sst>
 </file>
@@ -217,6 +220,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,9 +230,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,17 +530,17 @@
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -563,7 +566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -593,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -619,11 +622,14 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:H17" si="1">F5-G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H5" si="1">F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -648,7 +654,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -673,7 +679,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -698,7 +704,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -723,7 +729,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -748,7 +754,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -773,7 +779,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -798,7 +804,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -822,7 +828,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -842,10 +848,10 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -867,7 +873,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -957,88 +963,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -1132,7 +1138,7 @@
       <c r="AG4" s="7">
         <v>31</v>
       </c>
-      <c r="AH4" s="10"/>
+      <c r="AH4" s="11"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1796,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,88 +1815,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -1984,7 +1990,7 @@
       <c r="AG4" s="7">
         <v>31</v>
       </c>
-      <c r="AH4" s="10"/>
+      <c r="AH4" s="11"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2690,52 +2696,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6">
         <v>1</v>
       </c>
@@ -2829,7 +2835,7 @@
       <c r="AG4" s="7">
         <v>31</v>
       </c>
-      <c r="AH4" s="10"/>
+      <c r="AH4" s="11"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
